--- a/cmip6/models/taiesm1/cmip6_as-rcec_taiesm1_atmoschem.xlsx
+++ b/cmip6/models/taiesm1/cmip6_as-rcec_taiesm1_atmoschem.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="480">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -208,16 +208,16 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>Troposphere</t>
-  </si>
-  <si>
-    <t>Stratosphere</t>
-  </si>
-  <si>
-    <t>Mesosphere</t>
-  </si>
-  <si>
-    <t>Whole atmosphere</t>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>mesosphere</t>
+  </si>
+  <si>
+    <t>whole atmosphere</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -1087,7 +1087,7 @@
     <t>VOCs</t>
   </si>
   <si>
-    <t>Isoprene</t>
+    <t>isoprene</t>
   </si>
   <si>
     <t>H2O</t>
@@ -2474,7 +2474,7 @@
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
+    <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
+    <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
@@ -2493,12 +2493,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="24" customHeight="1">
+    <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="24" customHeight="1">
+    <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
         <v>61</v>
@@ -2510,16 +2510,13 @@
         <v>63</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF21" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
+    <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>66</v>
       </c>
@@ -2527,7 +2524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1">
+    <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>43</v>
       </c>
@@ -2538,10 +2535,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1">
+    <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
-    <row r="27" spans="1:32" ht="24" customHeight="1">
+    <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>70</v>
       </c>
@@ -2549,7 +2546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
+    <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>58</v>
       </c>
@@ -2560,12 +2557,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
+    <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
+    <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
         <v>74</v>
@@ -2574,7 +2571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
+    <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>75</v>
       </c>
@@ -3282,7 +3279,7 @@
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AF21</formula1>
+      <formula1>AA21:AE21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>AA30:AB30</formula1>
